--- a/resources/experiment 1/metrics/MAPE/average time/Retinopatía proliferativa.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Retinopatía proliferativa.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02900336491637682</v>
+        <v>0.03189485801624538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02900336491637682</v>
+        <v>0.03308258631898218</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02900336491637682</v>
+        <v>0.03364621646255368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02614709936101864</v>
+        <v>0.03037899043311675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02614709936101864</v>
+        <v>0.03319805781288295</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02614709936101864</v>
+        <v>0.03319560161109698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0722803012597651</v>
+        <v>0.03069757065543506</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0722803012597651</v>
+        <v>0.02867785842402152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0722803012597651</v>
+        <v>0.02752305608722286</v>
       </c>
     </row>
   </sheetData>
